--- a/VersionRecords/Version DC/Version 1.0.4/定时器/新增定时器 (PS组).xlsx
+++ b/VersionRecords/Version DC/Version 1.0.4/定时器/新增定时器 (PS组).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qianwenbo\Desktop\Mogo_Doc\VersionRecords\Version DC\定时器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version DC\Version 1.0.4\定时器\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>上线版本</t>
   </si>
@@ -123,7 +123,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>（数据中心_房东_统计_增量_天）数据维护</t>
+    <t>每天由定时器搜集gio数据，把uv记录到dc</t>
     <rPh sb="17" eb="18">
       <t>shu ju</t>
     </rPh>
@@ -133,127 +133,19 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncDayTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DcLandStatIncDayTask</t>
-  </si>
-  <si>
-    <r>
-      <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncDayTask</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨12点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据中心_房东_统计_增量_月
-该表数据当月每日都会重新计算截止当前的当月最新数据并覆盖原有每月最后一天数据为最终数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DcLandStatIncMonthTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DcLandStatIncMonthTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcLandStatIncMonthTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>（数据中心_房东_统计_全量_天）数据维护</t>
-    <rPh sb="17" eb="18">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>wei hu</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DCLandStatTotalDayTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCLandStatTotalDayTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DCLandStatTotalDayTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DCOrderInfoTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCOrderInfoTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DCOrderInfoTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>（数据中心_签约单_明细_统计_天）数据维护</t>
-    <rPh sb="18" eb="19">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wei hu</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据中心数据初始化</t>
-    <rPh sb="0" eb="1">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hzong xin</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>chu shi hua</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>com.mogoroom.tasktracker.task.dc.DcInitTask</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>DcInitTask</t>
-  </si>
-  <si>
-    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcInitTask"}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨1点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日凌晨1点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>单次执行，上线后由开发通知执行一次。</t>
+    <t>com.mogoroom.tasktracker.task.dc.DcUvStatTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DcUvStatTask</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.dc.DcUvStatTask"}</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日凌晨3点</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,35 +166,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -310,6 +208,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,6 +216,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,6 +224,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -336,6 +237,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,13 +276,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -479,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,9 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -877,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -893,7 +785,7 @@
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="44.875" customWidth="1"/>
+    <col min="10" max="10" width="47.625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="20.125" customWidth="1"/>
     <col min="13" max="13" width="79.375" customWidth="1"/>
@@ -1003,8 +895,8 @@
       <c r="N2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="17" t="s">
-        <v>50</v>
+      <c r="O2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>19</v>
@@ -1013,222 +905,6 @@
         <v>25</v>
       </c>
       <c r="R2" s="11"/>
-    </row>
-    <row r="3" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="11"/>
-    </row>
-    <row r="4" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="R6" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
